--- a/Excel-Sales-Analysis.xlsx
+++ b/Excel-Sales-Analysis.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\THINKPAD\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E35AC829-6F81-49E6-803A-1C66839D0118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{391DCCB6-D763-42A4-97D5-FB9CCDFCFBF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="2" xr2:uid="{CC5B7672-E3C9-458E-95EA-E391113A8754}"/>
   </bookViews>
   <sheets>
     <sheet name="RawData(Unclean)" sheetId="1" r:id="rId1"/>
     <sheet name="CleanedData" sheetId="3" r:id="rId2"/>
-    <sheet name="PivotTables(Insights)" sheetId="10" r:id="rId3"/>
+    <sheet name="Insights" sheetId="10" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="36" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -241,7 +241,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -286,32 +286,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
-      <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     </dxf>
     <dxf>
       <font>
@@ -350,6 +349,3028 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Excel-Sales-Analysis.xlsx]Insights!PivotTable6</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Insights!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Insights!$A$4:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Desk</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Headphones</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Keyboard</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Laptop</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Monitor</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Mouse</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Office Chair</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Table</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Insights!$B$4:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>135000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-18A4-47AD-8D6A-15D0C8462FF5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="383607200"/>
+        <c:axId val="383607680"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="383607200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="383607680"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="383607680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="383607200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Excel-Sales-Analysis.xlsx]Insights!PivotTable9</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Insights!$E$3:$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Electronics</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Insights!$D$5:$D$8</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Cebu</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Davao</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Manila</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Insights!$E$5:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>70600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>106800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A457-4AFC-AC33-728F3FD3261E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Insights!$F$3:$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Furniture</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Insights!$D$5:$D$8</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Cebu</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Davao</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Manila</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Insights!$F$5:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="1">
+                  <c:v>29000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A457-4AFC-AC33-728F3FD3261E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="383618240"/>
+        <c:axId val="383624480"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="383618240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="383624480"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="383624480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="383618240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Excel-Sales-Analysis.xlsx]Insights!PivotTable11</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.18766601049868767"/>
+          <c:y val="0.26245811234618815"/>
+          <c:w val="0.38161242344706914"/>
+          <c:h val="0.66933238704479847"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Insights!$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Insights!$I$4:$I$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Cash</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Credit Card</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Debit Card</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Gcash</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Insights!$J$4:$J$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7F74-453E-848B-2F1F08042702}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>25399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C91548D8-0DCC-33CA-64BE-24F7A75B64A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>384175</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1713A7E-D3C1-36D5-D085-510B38B1E0C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>403225</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>177799</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>98425</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>22224</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D35B809C-C321-9DCE-3F03-C222AA1CF0A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="THINKPAD" refreshedDate="46077.134362268516" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="20" xr:uid="{46752B04-4141-4329-8BCC-0099EC5A8AB7}">
   <cacheSource type="worksheet">
@@ -375,7 +3396,7 @@
         <s v="Davao"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Order_Date" numFmtId="166">
+    <cacheField name="Order_Date" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2024-01-05T00:00:00" maxDate="2024-05-02T00:00:00"/>
     </cacheField>
     <cacheField name="Product" numFmtId="0">
@@ -708,70 +3729,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6A12CB64-EFE2-4B14-9D36-DF8F63DDD9A6}" name="PivotTable11" cacheId="36" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="I3:J8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="12">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="166" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="11"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Order_ID" fld="0" subtotal="count" baseField="11" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{04E43CB2-D01B-4C72-94FE-5CE38464F2A8}" name="PivotTable9" cacheId="36" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{04E43CB2-D01B-4C72-94FE-5CE38464F2A8}" name="PivotTable9" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="D3:G8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -786,7 +3744,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField numFmtId="166" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisCol" showAll="0">
       <items count="3">
@@ -834,6 +3792,32 @@
   <dataFields count="1">
     <dataField name="Sum of Total_Amount" fld="10" baseField="0" baseItem="0"/>
   </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -846,8 +3830,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{69BA2A5C-C53F-4ADE-AB5C-F23C730D4D56}" name="PivotTable6" cacheId="36" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{69BA2A5C-C53F-4ADE-AB5C-F23C730D4D56}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -855,7 +3839,7 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField numFmtId="166" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
       <items count="9">
         <item x="3"/>
@@ -913,6 +3897,91 @@
   <dataFields count="1">
     <dataField name="Sum of Total_Amount" fld="10" baseField="0" baseItem="0"/>
   </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6A12CB64-EFE2-4B14-9D36-DF8F63DDD9A6}" name="PivotTable11" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="I3:J8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="12">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="11"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Order_ID" fld="0" subtotal="count" baseField="11" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -934,12 +4003,12 @@
     <tableColumn id="3" xr3:uid="{7DB4392C-C7B8-44B0-8C9D-4A378C77F04A}" name="Gender"/>
     <tableColumn id="4" xr3:uid="{2B5B9858-1FBA-4C0D-A07D-050CF7F4C410}" name="Age"/>
     <tableColumn id="5" xr3:uid="{A46B36FD-96F4-4F4A-ABBF-F41F05DE9070}" name="City"/>
-    <tableColumn id="6" xr3:uid="{EAA6E3D2-F9C7-41D9-AA9E-EF26EF5F99FA}" name="Order_Date" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{EAA6E3D2-F9C7-41D9-AA9E-EF26EF5F99FA}" name="Order_Date" dataDxfId="2"/>
     <tableColumn id="7" xr3:uid="{E476D2D2-B712-4632-9D64-AC83CEBFA141}" name="Product"/>
     <tableColumn id="8" xr3:uid="{D1C478BF-1792-4D15-B24B-53E7B837CD79}" name="Category"/>
     <tableColumn id="9" xr3:uid="{1606CAB0-A82A-465D-81F0-825212F8F205}" name="Quantity"/>
-    <tableColumn id="10" xr3:uid="{475FB4A3-B3FF-405C-B8D9-4AF8969051F2}" name="Unit_Price" dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{D18907BF-34E1-4FAB-B36C-8DFF7497E516}" name="Total_Amount" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{475FB4A3-B3FF-405C-B8D9-4AF8969051F2}" name="Unit_Price" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{D18907BF-34E1-4FAB-B36C-8DFF7497E516}" name="Total_Amount" dataDxfId="0"/>
     <tableColumn id="12" xr3:uid="{BDACF96C-46B0-4DE1-8B8B-FF0101C23951}" name="Payment_Method"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2141,7 +5210,7 @@
     <col min="1" max="1" width="10.08984375" customWidth="1"/>
     <col min="2" max="2" width="16.7265625" customWidth="1"/>
     <col min="3" max="3" width="8.90625" customWidth="1"/>
-    <col min="6" max="6" width="12.1796875" style="9" customWidth="1"/>
+    <col min="6" max="6" width="12.1796875" style="8" customWidth="1"/>
     <col min="7" max="7" width="11.54296875" customWidth="1"/>
     <col min="8" max="8" width="10.1796875" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
@@ -2166,7 +5235,7 @@
       <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="4" t="s">
@@ -2204,7 +5273,7 @@
       <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="8">
         <v>45413</v>
       </c>
       <c r="G2" t="s">
@@ -2242,7 +5311,7 @@
       <c r="E3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <v>45298</v>
       </c>
       <c r="G3" t="s">
@@ -2280,7 +5349,7 @@
       <c r="E4" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <v>45296</v>
       </c>
       <c r="G4" t="s">
@@ -2318,7 +5387,7 @@
       <c r="E5" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <v>45301</v>
       </c>
       <c r="G5" t="s">
@@ -2356,7 +5425,7 @@
       <c r="E6" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
         <v>45303</v>
       </c>
       <c r="G6" t="s">
@@ -2394,7 +5463,7 @@
       <c r="E7" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="8">
         <v>45298</v>
       </c>
       <c r="G7" t="s">
@@ -2432,7 +5501,7 @@
       <c r="E8" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="8">
         <v>45304</v>
       </c>
       <c r="G8" t="s">
@@ -2470,7 +5539,7 @@
       <c r="E9" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="8">
         <v>45306</v>
       </c>
       <c r="G9" t="s">
@@ -2508,7 +5577,7 @@
       <c r="E10" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="8">
         <v>45308</v>
       </c>
       <c r="G10" t="s">
@@ -2546,7 +5615,7 @@
       <c r="E11" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="8">
         <v>45309</v>
       </c>
       <c r="G11" t="s">
@@ -2584,7 +5653,7 @@
       <c r="E12" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="8">
         <v>45309</v>
       </c>
       <c r="G12" t="s">
@@ -2622,7 +5691,7 @@
       <c r="E13" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="8">
         <v>45311</v>
       </c>
       <c r="G13" t="s">
@@ -2660,7 +5729,7 @@
       <c r="E14" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="8">
         <v>45312</v>
       </c>
       <c r="G14" t="s">
@@ -2698,7 +5767,7 @@
       <c r="E15" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="8">
         <v>45313</v>
       </c>
       <c r="G15" t="s">
@@ -2736,7 +5805,7 @@
       <c r="E16" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="8">
         <v>45314</v>
       </c>
       <c r="G16" t="s">
@@ -2774,7 +5843,7 @@
       <c r="E17" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="8">
         <v>45316</v>
       </c>
       <c r="G17" t="s">
@@ -2812,7 +5881,7 @@
       <c r="E18" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="8">
         <v>45317</v>
       </c>
       <c r="G18" t="s">
@@ -2850,7 +5919,7 @@
       <c r="E19" t="s">
         <v>24</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="8">
         <v>45317</v>
       </c>
       <c r="G19" t="s">
@@ -2888,7 +5957,7 @@
       <c r="E20" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="8">
         <v>45319</v>
       </c>
       <c r="G20" t="s">
@@ -2926,7 +5995,7 @@
       <c r="E21" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="8">
         <v>45320</v>
       </c>
       <c r="G21" t="s">
@@ -2961,7 +6030,7 @@
   <dimension ref="A2:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2985,19 +6054,19 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>56</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>56</v>
       </c>
       <c r="J3" t="s">
@@ -3005,13 +6074,13 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4">
         <v>16000</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>56</v>
       </c>
       <c r="E4" t="s">
@@ -3023,146 +6092,145 @@
       <c r="G4" t="s">
         <v>57</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5">
         <v>9000</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5">
         <v>70600</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5">
+      <c r="G5">
         <v>70600</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6">
         <v>2400</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5">
+      <c r="F6">
         <v>29000</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6">
         <v>29000</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7">
         <v>135000</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7">
         <v>106800</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7">
         <v>18000</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7">
         <v>124800</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8">
         <v>24000</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8">
         <v>177400</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8">
         <v>47000</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8">
         <v>224400</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9">
         <v>7000</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10">
         <v>11000</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11">
         <v>20000</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12">
         <v>224400</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
--- a/Excel-Sales-Analysis.xlsx
+++ b/Excel-Sales-Analysis.xlsx
@@ -8,20 +8,38 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\THINKPAD\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{391DCCB6-D763-42A4-97D5-FB9CCDFCFBF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8717ABDE-BCFB-4FA6-B61A-669FC6D7C19E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="2" xr2:uid="{CC5B7672-E3C9-458E-95EA-E391113A8754}"/>
   </bookViews>
   <sheets>
     <sheet name="RawData(Unclean)" sheetId="1" r:id="rId1"/>
     <sheet name="CleanedData" sheetId="3" r:id="rId2"/>
-    <sheet name="Insights" sheetId="10" r:id="rId3"/>
+    <sheet name="PivotTables" sheetId="10" r:id="rId3"/>
+    <sheet name="Dashboard" sheetId="12" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="Slicer_Age">#N/A</definedName>
+    <definedName name="Slicer_City">#N/A</definedName>
+    <definedName name="Slicer_Gender">#N/A</definedName>
+    <definedName name="Slicer_Product">#N/A</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="2" r:id="rId5"/>
   </pivotCaches>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
+      <x14:slicerCaches>
+        <x14:slicerCache r:id="rId6"/>
+        <x14:slicerCache r:id="rId7"/>
+        <x14:slicerCache r:id="rId8"/>
+        <x14:slicerCache r:id="rId9"/>
+      </x14:slicerCaches>
+    </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -41,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="65">
   <si>
     <t>Order_ID</t>
   </si>
@@ -234,6 +252,9 @@
   <si>
     <t>Most Used Payment Methods</t>
   </si>
+  <si>
+    <t>Sales Dashboard</t>
+  </si>
 </sst>
 </file>
 
@@ -243,7 +264,7 @@
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -259,8 +280,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="48"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -270,6 +298,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF83E3DC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -286,7 +320,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -298,6 +332,13 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -338,6 +379,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF83E3DC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -363,8 +409,8 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Excel-Sales-Analysis.xlsx]Insights!PivotTable6</c:name>
-    <c:fmtId val="0"/>
+    <c:name>[Excel-Sales-Analysis.xlsx]PivotTables!PivotTable6</c:name>
+    <c:fmtId val="9"/>
   </c:pivotSource>
   <c:chart>
     <c:title>
@@ -467,7 +513,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Insights!$B$3</c:f>
+              <c:f>PivotTables!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -488,7 +534,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Insights!$A$4:$A$12</c:f>
+              <c:f>PivotTables!$A$4:$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -520,7 +566,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Insights!$B$4:$B$12</c:f>
+              <c:f>PivotTables!$B$4:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -553,7 +599,1381 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-18A4-47AD-8D6A-15D0C8462FF5}"/>
+              <c16:uniqueId val="{00000000-A87F-4DE2-A65F-A79D62C41BA0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="644613920"/>
+        <c:axId val="644600960"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="644613920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="644600960"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="644600960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="644613920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Excel-Sales-Analysis.xlsx]PivotTables!PivotTable1</c:name>
+    <c:fmtId val="6"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.21726857968257324"/>
+          <c:y val="0.15804635460362063"/>
+          <c:w val="0.51312112831533641"/>
+          <c:h val="0.72324623735255178"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PivotTables!$B$18:$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Electronics</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>PivotTables!$A$20:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Cebu</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Davao</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Manila</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PivotTables!$B$20:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>70600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>106800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-245B-40E1-B5CE-EF2C04EC5DE7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PivotTables!$C$18:$C$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Furniture</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>PivotTables!$A$20:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Cebu</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Davao</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Manila</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PivotTables!$C$20:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="1">
+                  <c:v>29000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-245B-40E1-B5CE-EF2C04EC5DE7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="644592320"/>
+        <c:axId val="644616320"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="644592320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="644616320"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="644616320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="644592320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Excel-Sales-Analysis.xlsx]PivotTables!PivotTable2</c:name>
+    <c:fmtId val="4"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PivotTables!$B$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>PivotTables!$A$30:$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Cash</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Credit Card</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Debit Card</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Gcash</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PivotTables!$B$30:$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AFCA-43E7-88EF-DDDD5100FC14}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Excel-Sales-Analysis.xlsx]PivotTables!PivotTable6</c:name>
+    <c:fmtId val="4"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PivotTables!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>PivotTables!$A$4:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Desk</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Headphones</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Keyboard</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Laptop</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Monitor</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Mouse</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Office Chair</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Table</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PivotTables!$B$4:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>135000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CB0F-4195-BA32-76ED3CA175C5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -776,7 +2196,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -789,10 +2209,6 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
-  <c:pivotSource>
-    <c:name>[Excel-Sales-Analysis.xlsx]Insights!PivotTable9</c:name>
-    <c:fmtId val="0"/>
-  </c:pivotSource>
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:pivotFmts>
@@ -908,6 +2324,230 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -919,15 +2559,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Insights!$E$3:$E$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Electronics</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Electronics</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -940,40 +2572,37 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>Insights!$D$5:$D$8</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Cebu</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Davao</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Manila</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:strLit>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>Cebu</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Davao</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>Manila</c:v>
+              </c:pt>
+            </c:strLit>
           </c:cat>
           <c:val>
-            <c:numRef>
-              <c:f>Insights!$E$5:$E$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>70600</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>106800</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>70600</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>106800</c:v>
+              </c:pt>
+            </c:numLit>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A457-4AFC-AC33-728F3FD3261E}"/>
+              <c16:uniqueId val="{00000000-8523-449C-ACF6-AAAE933FE25A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -981,15 +2610,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Insights!$F$3:$F$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Furniture</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Furniture</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -1002,40 +2623,37 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>Insights!$D$5:$D$8</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Cebu</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Davao</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Manila</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:strLit>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>Cebu</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Davao</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>Manila</c:v>
+              </c:pt>
+            </c:strLit>
           </c:cat>
           <c:val>
-            <c:numRef>
-              <c:f>Insights!$F$5:$F$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="1">
-                  <c:v>29000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>18000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>29000</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>18000</c:v>
+              </c:pt>
+            </c:numLit>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A457-4AFC-AC33-728F3FD3261E}"/>
+              <c16:uniqueId val="{00000004-8523-449C-ACF6-AAAE933FE25A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1238,26 +2856,11 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst>
-    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
-      <c14:pivotOptions>
-        <c14:dropZoneFilter val="1"/>
-        <c14:dropZoneCategories val="1"/>
-        <c14:dropZoneData val="1"/>
-        <c14:dropZoneSeries val="1"/>
-        <c14:dropZonesVisible val="1"/>
-      </c14:pivotOptions>
-    </c:ext>
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
-  </c:extLst>
+  <c:extLst/>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1270,10 +2873,6 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
-  <c:pivotSource>
-    <c:name>[Excel-Sales-Analysis.xlsx]Insights!PivotTable11</c:name>
-    <c:fmtId val="0"/>
-  </c:pivotSource>
   <c:chart>
     <c:title>
       <c:overlay val="0"/>
@@ -1365,6 +2964,234 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout>
@@ -1384,15 +3211,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Insights!$J$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Total</c:v>
           </c:tx>
           <c:dPt>
             <c:idx val="0"/>
@@ -1408,6 +3227,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-305E-419F-B353-3CFD485FE0A9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1423,6 +3247,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-305E-419F-B353-3CFD485FE0A9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1438,6 +3267,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-305E-419F-B353-3CFD485FE0A9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1453,51 +3287,50 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-305E-419F-B353-3CFD485FE0A9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
-            <c:strRef>
-              <c:f>Insights!$I$4:$I$8</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Cash</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Credit Card</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Debit Card</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Gcash</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:strLit>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>Cash</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Credit Card</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>Debit Card</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>Gcash</c:v>
+              </c:pt>
+            </c:strLit>
           </c:cat>
           <c:val>
-            <c:numRef>
-              <c:f>Insights!$J$4:$J$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>4</c:v>
+              </c:pt>
+            </c:numLit>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7F74-453E-848B-2F1F08042702}"/>
+              <c16:uniqueId val="{00000008-305E-419F-B353-3CFD485FE0A9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1592,22 +3425,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst>
-    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
-      <c14:pivotOptions>
-        <c14:dropZoneFilter val="1"/>
-        <c14:dropZoneCategories val="1"/>
-        <c14:dropZoneData val="1"/>
-        <c14:dropZoneSeries val="1"/>
-        <c14:dropZonesVisible val="1"/>
-      </c14:pivotOptions>
-    </c:ext>
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
-  </c:extLst>
+  <c:extLst/>
 </c:chartSpace>
 </file>
 
@@ -1731,6 +3549,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -3258,27 +5196,1554 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>146050</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>25399</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>454025</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C91548D8-0DCC-33CA-64BE-24F7A75B64A7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8ECA858-D47C-52FB-7822-4D9D33B9514E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3298,23 +6763,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>22225</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>511175</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>155575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>384175</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>711758</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>6978</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1713A7E-D3C1-36D5-D085-510B38B1E0C8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B38E1C8D-EE53-A287-3085-84F90D66BBCA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3334,23 +6799,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>403225</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>177799</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>219109</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>114719</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>98425</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>22224</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>27912</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>160495</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="8" name="Chart 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D35B809C-C321-9DCE-3F03-C222AA1CF0A1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8A23124-8645-C09B-14BF-4560C1584A1A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3371,6 +6836,437 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>163618</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>139957</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>575733</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>170366</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC34CDA0-0252-42C5-AEF0-A87826113A1D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>407382</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>31519</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>583033</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>65692</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC74A7A9-0930-404F-AAF8-9301D62E058C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>170367</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>31790</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>371709</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>69695</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A26AF6EA-3190-467D-8927-C2D51E4A4412}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>8466</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>8466</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>110066</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="5" name="Age">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E1CFA1C-21DF-DB01-5E12-4EBF499797A2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Age"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8466" y="2150533"/>
+              <a:ext cx="1828800" cy="1312333"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>84667</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="6" name="City">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73192949-E5DF-6A3C-8C97-4B3F97DDD9BF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="City"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="950383"/>
+              <a:ext cx="1828800" cy="1183217"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="8" name="Gender">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E10E52A4-8D53-E487-4971-C7C5E512C9FE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Gender"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="3486150"/>
+              <a:ext cx="1828800" cy="950383"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>179917</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>160866</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="9" name="Product">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6FAFBAD-5118-E4D8-FC7B-E484E7422C00}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Product"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="4464050"/>
+              <a:ext cx="1828800" cy="1471083"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="THINKPAD" refreshedDate="46077.134362268516" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="20" xr:uid="{46752B04-4141-4329-8BCC-0099EC5A8AB7}">
   <cacheSource type="worksheet">
@@ -3384,10 +7280,24 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="Gender" numFmtId="0">
-      <sharedItems/>
+      <sharedItems count="2">
+        <s v="Male"/>
+        <s v="Female"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Age" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="19" maxValue="41"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="19" maxValue="41" count="10">
+        <n v="28"/>
+        <n v="22"/>
+        <n v="35"/>
+        <n v="30"/>
+        <n v="41"/>
+        <n v="19"/>
+        <n v="27"/>
+        <n v="29"/>
+        <n v="33"/>
+        <n v="25"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="City" numFmtId="0">
       <sharedItems count="3">
@@ -3437,7 +7347,7 @@
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
+      <x14:pivotCacheDefinition pivotCacheId="737134092"/>
     </ext>
   </extLst>
 </pivotCacheDefinition>
@@ -3448,8 +7358,8 @@
   <r>
     <n v="1001"/>
     <s v="John Cruz"/>
-    <s v="Male"/>
-    <n v="28"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="0"/>
     <d v="2024-05-01T00:00:00"/>
     <x v="0"/>
@@ -3462,8 +7372,8 @@
   <r>
     <n v="1002"/>
     <s v="Anna Reyes"/>
-    <s v="Female"/>
-    <n v="22"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="1"/>
     <d v="2024-01-07T00:00:00"/>
     <x v="1"/>
@@ -3476,8 +7386,8 @@
   <r>
     <n v="1003"/>
     <s v="Marco Santos"/>
-    <s v="Male"/>
-    <n v="35"/>
+    <x v="0"/>
+    <x v="2"/>
     <x v="2"/>
     <d v="2024-01-05T00:00:00"/>
     <x v="2"/>
@@ -3490,8 +7400,8 @@
   <r>
     <n v="1004"/>
     <s v="Liza dela Cruz"/>
-    <s v="Female"/>
-    <n v="30"/>
+    <x v="1"/>
+    <x v="3"/>
     <x v="0"/>
     <d v="2024-01-10T00:00:00"/>
     <x v="3"/>
@@ -3504,8 +7414,8 @@
   <r>
     <n v="1005"/>
     <s v="Paul Tan"/>
-    <s v="Male"/>
-    <n v="41"/>
+    <x v="0"/>
+    <x v="4"/>
     <x v="1"/>
     <d v="2024-01-12T00:00:00"/>
     <x v="4"/>
@@ -3518,8 +7428,8 @@
   <r>
     <n v="1006"/>
     <s v="Anna Reyes"/>
-    <s v="Female"/>
-    <n v="22"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="1"/>
     <d v="2024-01-07T00:00:00"/>
     <x v="1"/>
@@ -3532,8 +7442,8 @@
   <r>
     <n v="1007"/>
     <s v="Kevin Lim"/>
-    <s v="Male"/>
-    <n v="19"/>
+    <x v="0"/>
+    <x v="5"/>
     <x v="0"/>
     <d v="2024-01-13T00:00:00"/>
     <x v="5"/>
@@ -3546,8 +7456,8 @@
   <r>
     <n v="1008"/>
     <s v="Unknown"/>
-    <s v="Female"/>
-    <n v="30"/>
+    <x v="1"/>
+    <x v="3"/>
     <x v="2"/>
     <d v="2024-01-15T00:00:00"/>
     <x v="6"/>
@@ -3560,8 +7470,8 @@
   <r>
     <n v="1009"/>
     <s v="Grace Lee"/>
-    <s v="Female"/>
-    <n v="27"/>
+    <x v="1"/>
+    <x v="6"/>
     <x v="0"/>
     <d v="2024-01-17T00:00:00"/>
     <x v="0"/>
@@ -3574,8 +7484,8 @@
   <r>
     <n v="1010"/>
     <s v="Mark Ong"/>
-    <s v="Male"/>
-    <n v="30"/>
+    <x v="0"/>
+    <x v="3"/>
     <x v="1"/>
     <d v="2024-01-18T00:00:00"/>
     <x v="7"/>
@@ -3588,8 +7498,8 @@
   <r>
     <n v="1011"/>
     <s v="Claire Yu"/>
-    <s v="Female"/>
-    <n v="29"/>
+    <x v="1"/>
+    <x v="7"/>
     <x v="2"/>
     <d v="2024-01-18T00:00:00"/>
     <x v="3"/>
@@ -3602,8 +7512,8 @@
   <r>
     <n v="1012"/>
     <s v="Ryan Co"/>
-    <s v="Male"/>
-    <n v="33"/>
+    <x v="0"/>
+    <x v="8"/>
     <x v="0"/>
     <d v="2024-01-20T00:00:00"/>
     <x v="4"/>
@@ -3616,8 +7526,8 @@
   <r>
     <n v="1013"/>
     <s v="Trisha Lim"/>
-    <s v="Female"/>
-    <n v="25"/>
+    <x v="1"/>
+    <x v="9"/>
     <x v="0"/>
     <d v="2024-01-21T00:00:00"/>
     <x v="1"/>
@@ -3630,8 +7540,8 @@
   <r>
     <n v="1014"/>
     <s v="Kevin Lim"/>
-    <s v="Male"/>
-    <n v="19"/>
+    <x v="0"/>
+    <x v="5"/>
     <x v="0"/>
     <d v="2024-01-22T00:00:00"/>
     <x v="5"/>
@@ -3644,8 +7554,8 @@
   <r>
     <n v="1015"/>
     <s v="Paul Tan"/>
-    <s v="Male"/>
-    <n v="41"/>
+    <x v="0"/>
+    <x v="4"/>
     <x v="1"/>
     <d v="2024-01-23T00:00:00"/>
     <x v="0"/>
@@ -3658,8 +7568,8 @@
   <r>
     <n v="1016"/>
     <s v="Liza dela Cruz"/>
-    <s v="Female"/>
-    <n v="30"/>
+    <x v="1"/>
+    <x v="3"/>
     <x v="0"/>
     <d v="2024-01-25T00:00:00"/>
     <x v="6"/>
@@ -3672,8 +7582,8 @@
   <r>
     <n v="1017"/>
     <s v="Grace Lee"/>
-    <s v="Female"/>
-    <n v="27"/>
+    <x v="1"/>
+    <x v="6"/>
     <x v="0"/>
     <d v="2024-01-26T00:00:00"/>
     <x v="4"/>
@@ -3686,8 +7596,8 @@
   <r>
     <n v="1018"/>
     <s v="Marco Santos"/>
-    <s v="Male"/>
-    <n v="35"/>
+    <x v="0"/>
+    <x v="2"/>
     <x v="2"/>
     <d v="2024-01-26T00:00:00"/>
     <x v="2"/>
@@ -3700,8 +7610,8 @@
   <r>
     <n v="1019"/>
     <s v="John Cruz"/>
-    <s v="Male"/>
-    <n v="28"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="0"/>
     <d v="2024-01-28T00:00:00"/>
     <x v="7"/>
@@ -3714,8 +7624,8 @@
   <r>
     <n v="1020"/>
     <s v="Anna Reyes"/>
-    <s v="Female"/>
-    <n v="22"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="1"/>
     <d v="2024-01-29T00:00:00"/>
     <x v="1"/>
@@ -3729,12 +7639,197 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{04E43CB2-D01B-4C72-94FE-5CE38464F2A8}" name="PivotTable9" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="D3:G8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{68BD482C-690B-4130-9F0B-A111C9F212A0}" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+  <location ref="A29:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="12">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="11">
+        <item x="5"/>
+        <item x="1"/>
+        <item x="9"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item x="7"/>
+        <item x="3"/>
+        <item x="8"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="9">
+        <item x="3"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="11"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Order_ID" fld="0" subtotal="count" baseField="11" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="7">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="11" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="11" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="11" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="11" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9D169E5E-CD39-40A9-AEBF-6E9646644E4F}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+  <location ref="A18:D23" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
       <items count="4">
@@ -3745,7 +7840,19 @@
       </items>
     </pivotField>
     <pivotField numFmtId="164" showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="9">
+        <item x="3"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField axis="axisCol" showAll="0">
       <items count="3">
         <item x="0"/>
@@ -3792,7 +7899,7 @@
   <dataFields count="1">
     <dataField name="Sum of Total_Amount" fld="10" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="2">
+  <chartFormats count="6">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
@@ -3817,6 +7924,54 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="5" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -3830,15 +7985,28 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{69BA2A5C-C53F-4ADE-AB5C-F23C730D4D56}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{69BA2A5C-C53F-4ADE-AB5C-F23C730D4D56}" name="PivotTable6" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="A3:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField numFmtId="164" showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
       <items count="9">
@@ -3897,8 +8065,71 @@
   <dataFields count="1">
     <dataField name="Sum of Total_Amount" fld="10" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="1">
+  <chartFormats count="8">
     <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -3920,78 +8151,98 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6A12CB64-EFE2-4B14-9D36-DF8F63DDD9A6}" name="PivotTable11" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="I3:J8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="12">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
+<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Age" xr10:uid="{0D086D94-FDDA-48BC-A285-215E63EBF839}" sourceName="Age">
+  <pivotTables>
+    <pivotTable tabId="10" name="PivotTable2"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="737134092">
+      <items count="10">
+        <i x="5" s="1"/>
+        <i x="1" s="1"/>
+        <i x="9" s="1"/>
+        <i x="6" s="1"/>
+        <i x="0" s="1"/>
+        <i x="7" s="1"/>
+        <i x="3" s="1"/>
+        <i x="8" s="1"/>
+        <i x="2" s="1"/>
+        <i x="4" s="1"/>
       </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="11"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Order_ID" fld="0" subtotal="count" baseField="11" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_City" xr10:uid="{61C7413D-9226-447E-9820-8DB824EFC6A9}" sourceName="City">
+  <pivotTables>
+    <pivotTable tabId="10" name="PivotTable6"/>
+    <pivotTable tabId="10" name="PivotTable1"/>
+    <pivotTable tabId="10" name="PivotTable2"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="737134092">
+      <items count="3">
+        <i x="1" s="1"/>
+        <i x="2" s="1"/>
+        <i x="0" s="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache3.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Gender" xr10:uid="{9A34BFEE-1DD0-4C71-B18C-1236CFF339D2}" sourceName="Gender">
+  <pivotTables>
+    <pivotTable tabId="10" name="PivotTable6"/>
+    <pivotTable tabId="10" name="PivotTable1"/>
+    <pivotTable tabId="10" name="PivotTable2"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="737134092">
+      <items count="2">
+        <i x="1" s="1"/>
+        <i x="0" s="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache4.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Product" xr10:uid="{625C3E01-1CD2-4270-B8E1-BFDF758CFEF9}" sourceName="Product">
+  <pivotTables>
+    <pivotTable tabId="10" name="PivotTable6"/>
+    <pivotTable tabId="10" name="PivotTable1"/>
+    <pivotTable tabId="10" name="PivotTable2"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="737134092">
+      <items count="8">
+        <i x="3" s="1"/>
+        <i x="1" s="1"/>
+        <i x="5" s="1"/>
+        <i x="0" s="1"/>
+        <i x="7" s="1"/>
+        <i x="4" s="1"/>
+        <i x="2" s="1"/>
+        <i x="6" s="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Age" xr10:uid="{BEA0092F-D5DE-4A9E-B1C6-6B13BBBC3853}" cache="Slicer_Age" caption="Age" rowHeight="251883"/>
+  <slicer name="City" xr10:uid="{8E01ADB1-5994-4480-989E-B9D174271787}" cache="Slicer_City" caption="City" rowHeight="251883"/>
+  <slicer name="Gender" xr10:uid="{35B9CBCE-825A-43DF-8806-1CF8ED91A866}" cache="Slicer_Gender" caption="Gender" rowHeight="251883"/>
+  <slicer name="Product" xr10:uid="{F0497C61-F77A-4FB9-AABE-9B616428273C}" cache="Slicer_Product" caption="Product" rowHeight="251883"/>
+</slicers>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6027,210 +10278,361 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33D590A3-9471-4C92-9E52-E83C9F5F7E77}">
-  <dimension ref="A2:J12"/>
+  <dimension ref="A2:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="91" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.54296875" customWidth="1"/>
     <col min="2" max="2" width="18.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="8.7265625" customWidth="1"/>
-    <col min="9" max="9" width="12.1796875" customWidth="1"/>
-    <col min="10" max="10" width="14.36328125" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" customWidth="1"/>
+    <col min="5" max="5" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>61</v>
       </c>
-      <c r="D2" t="s">
-        <v>62</v>
-      </c>
-      <c r="I2" t="s">
-        <v>63</v>
-      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>56</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="J3" t="s">
-        <v>59</v>
-      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="11">
         <v>16000</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4">
-        <v>6</v>
-      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="11">
         <v>9000</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>70600</v>
-      </c>
-      <c r="G5">
-        <v>70600</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5">
-        <v>8</v>
-      </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="11">
         <v>2400</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6">
-        <v>29000</v>
-      </c>
-      <c r="G6">
-        <v>29000</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6">
-        <v>2</v>
-      </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="11">
         <v>135000</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7">
-        <v>106800</v>
-      </c>
-      <c r="F7">
-        <v>18000</v>
-      </c>
-      <c r="G7">
-        <v>124800</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7">
-        <v>4</v>
-      </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="11">
         <v>24000</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8">
-        <v>177400</v>
-      </c>
-      <c r="F8">
-        <v>47000</v>
-      </c>
-      <c r="G8">
-        <v>224400</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="J8">
-        <v>20</v>
-      </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="11">
         <v>7000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="11">
         <v>11000</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="11">
         <v>20000</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="11">
         <v>224400</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="11">
+        <v>70600</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11">
+        <v>70600</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11">
+        <v>29000</v>
+      </c>
+      <c r="D21" s="11">
+        <v>29000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="11">
+        <v>106800</v>
+      </c>
+      <c r="C22" s="11">
+        <v>18000</v>
+      </c>
+      <c r="D22" s="11">
+        <v>124800</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="11">
+        <v>177400</v>
+      </c>
+      <c r="C23" s="11">
+        <v>47000</v>
+      </c>
+      <c r="D23" s="11">
+        <v>224400</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="11">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId4"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3043BB43-6142-436C-A458-C763649D5D7F}">
+  <dimension ref="A1:P5"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="75" workbookViewId="0">
+      <selection activeCell="R30" sqref="R30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:P5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId2"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Excel-Sales-Analysis.xlsx
+++ b/Excel-Sales-Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\THINKPAD\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8717ABDE-BCFB-4FA6-B61A-669FC6D7C19E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C31303E2-C7FA-4411-9758-198977A5F259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="2" xr2:uid="{CC5B7672-E3C9-458E-95EA-E391113A8754}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="3" xr2:uid="{CC5B7672-E3C9-458E-95EA-E391113A8754}"/>
   </bookViews>
   <sheets>
     <sheet name="RawData(Unclean)" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -840,6 +840,36 @@
     <c:fmtId val="6"/>
   </c:pivotSource>
   <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:pivotFmts>
       <c:pivotFmt>
@@ -1091,7 +1121,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-245B-40E1-B5CE-EF2C04EC5DE7}"/>
+              <c16:uniqueId val="{00000004-4A1A-42DB-A6F4-DD6B40FFBFF1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1421,6 +1451,76 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -1454,6 +1554,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-D682-45A2-9606-EA441A4DBCD3}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1469,6 +1574,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-D682-45A2-9606-EA441A4DBCD3}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1484,6 +1594,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-D682-45A2-9606-EA441A4DBCD3}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1499,6 +1614,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-D682-45A2-9606-EA441A4DBCD3}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -2209,6 +2329,672 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Excel-Sales-Analysis.xlsx]PivotTables!PivotTable2</c:name>
+    <c:fmtId val="7"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="14"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="15"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PivotTables!$B$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-6006-4C3D-8524-2E2727017F68}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-6006-4C3D-8524-2E2727017F68}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-6006-4C3D-8524-2E2727017F68}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-6006-4C3D-8524-2E2727017F68}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>PivotTables!$A$30:$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Cash</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Credit Card</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Debit Card</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Gcash</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PivotTables!$B$30:$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-6006-4C3D-8524-2E2727017F68}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Excel-Sales-Analysis.xlsx]PivotTables!PivotTable1</c:name>
+    <c:fmtId val="9"/>
+  </c:pivotSource>
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:pivotFmts>
@@ -2550,7 +3336,17 @@
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.21726857968257324"/>
+          <c:y val="0.15804635460362063"/>
+          <c:w val="0.51312112831533641"/>
+          <c:h val="0.72324623735255178"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
@@ -2559,7 +3355,15 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Electronics</c:v>
+            <c:strRef>
+              <c:f>PivotTables!$B$18:$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Electronics</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -2572,37 +3376,40 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strLit>
-              <c:ptCount val="3"/>
-              <c:pt idx="0">
-                <c:v>Cebu</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>Davao</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>Manila</c:v>
-              </c:pt>
-            </c:strLit>
+            <c:strRef>
+              <c:f>PivotTables!$A$20:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Cebu</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Davao</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Manila</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="3"/>
-              <c:pt idx="0">
-                <c:v>70600</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>0</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>106800</c:v>
-              </c:pt>
-            </c:numLit>
+            <c:numRef>
+              <c:f>PivotTables!$B$20:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>70600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>106800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8523-449C-ACF6-AAAE933FE25A}"/>
+              <c16:uniqueId val="{00000000-630E-4916-9FF8-020495C6E0C4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2610,7 +3417,15 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Furniture</c:v>
+            <c:strRef>
+              <c:f>PivotTables!$C$18:$C$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Furniture</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -2623,37 +3438,40 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strLit>
-              <c:ptCount val="3"/>
-              <c:pt idx="0">
-                <c:v>Cebu</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>Davao</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>Manila</c:v>
-              </c:pt>
-            </c:strLit>
+            <c:strRef>
+              <c:f>PivotTables!$A$20:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Cebu</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Davao</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Manila</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="3"/>
-              <c:pt idx="0">
-                <c:v>0</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>29000</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>18000</c:v>
-              </c:pt>
-            </c:numLit>
+            <c:numRef>
+              <c:f>PivotTables!$C$20:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="1">
+                  <c:v>29000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-8523-449C-ACF6-AAAE933FE25A}"/>
+              <c16:uniqueId val="{00000003-630E-4916-9FF8-020495C6E0C4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2666,11 +3484,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="383618240"/>
-        <c:axId val="383624480"/>
+        <c:axId val="644592320"/>
+        <c:axId val="644616320"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="383618240"/>
+        <c:axId val="644592320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2713,7 +3531,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="383624480"/>
+        <c:crossAx val="644616320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2721,7 +3539,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="383624480"/>
+        <c:axId val="644616320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2772,7 +3590,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="383618240"/>
+        <c:crossAx val="644592320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2856,576 +3674,22 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst/>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:pivotFmts>
-      <c:pivotFmt>
-        <c:idx val="0"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="1"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="2"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="3"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="4"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="5"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="6"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="7"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="8"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="9"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="10"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-      </c:pivotFmt>
-    </c:pivotFmts>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.18766601049868767"/>
-          <c:y val="0.26245811234618815"/>
-          <c:w val="0.38161242344706914"/>
-          <c:h val="0.66933238704479847"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Total</c:v>
-          </c:tx>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-305E-419F-B353-3CFD485FE0A9}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-305E-419F-B353-3CFD485FE0A9}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-305E-419F-B353-3CFD485FE0A9}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-305E-419F-B353-3CFD485FE0A9}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strLit>
-              <c:ptCount val="4"/>
-              <c:pt idx="0">
-                <c:v>Cash</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>Credit Card</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>Debit Card</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>Gcash</c:v>
-              </c:pt>
-            </c:strLit>
-          </c:cat>
-          <c:val>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="4"/>
-              <c:pt idx="0">
-                <c:v>6</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>8</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>2</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>4</c:v>
-              </c:pt>
-            </c:numLit>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-305E-419F-B353-3CFD485FE0A9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:extLst/>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
 </c:chartSpace>
 </file>
 
@@ -5700,7 +5964,7 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -5757,7 +6021,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -5808,6 +6072,13 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -5818,12 +6089,19 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -5861,7 +6139,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -6205,7 +6483,7 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -6262,7 +6540,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -6313,13 +6591,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -6330,19 +6601,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -6380,7 +6644,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -6876,82 +7140,6 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>407382</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>31519</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>583033</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>65692</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC74A7A9-0930-404F-AAF8-9301D62E058C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>170367</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>31790</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>371709</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>69695</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A26AF6EA-3190-467D-8927-C2D51E4A4412}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -6965,8 +7153,8 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>110066</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="5" name="Age">
@@ -6989,7 +7177,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -7043,8 +7231,8 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>84667</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="6" name="City">
@@ -7067,7 +7255,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -7121,8 +7309,8 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="8" name="Gender">
@@ -7145,7 +7333,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -7199,8 +7387,8 @@
       <xdr:row>31</xdr:row>
       <xdr:rowOff>160866</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="9" name="Product">
@@ -7223,7 +7411,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -7262,6 +7450,82 @@
         </xdr:sp>
       </mc:Fallback>
     </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>42333</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>417845</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>33866</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC9147B2-FC24-42B0-A7CF-7DC6B0531E1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>491068</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>50801</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>567268</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>16935</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCFF677C-8918-4EA5-AC3F-E6C9E6B987A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7639,354 +7903,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{68BD482C-690B-4130-9F0B-A111C9F212A0}" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
-  <location ref="A29:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="12">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="11">
-        <item x="5"/>
-        <item x="1"/>
-        <item x="9"/>
-        <item x="6"/>
-        <item x="0"/>
-        <item x="7"/>
-        <item x="3"/>
-        <item x="8"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="9">
-        <item x="3"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="0"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="2"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="11"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Order_ID" fld="0" subtotal="count" baseField="11" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="7">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="6" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="7">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="11" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="11" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="11" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="10">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="11" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9D169E5E-CD39-40A9-AEBF-6E9646644E4F}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
-  <location ref="A18:D23" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="12">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="9">
-        <item x="3"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="0"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="2"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="7"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Total_Amount" fld="10" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="6">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="7" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="7" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="7" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="7" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="6" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="7" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="6" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="7" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{69BA2A5C-C53F-4ADE-AB5C-F23C730D4D56}" name="PivotTable6" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{69BA2A5C-C53F-4ADE-AB5C-F23C730D4D56}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="A3:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -8134,6 +8051,539 @@
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{68BD482C-690B-4130-9F0B-A111C9F212A0}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
+  <location ref="A29:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="12">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="11">
+        <item x="5"/>
+        <item x="1"/>
+        <item x="9"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item x="7"/>
+        <item x="3"/>
+        <item x="8"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="9">
+        <item x="3"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="11"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Order_ID" fld="0" subtotal="count" baseField="11" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="17">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="11" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="11" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="11" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="11" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="11" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="11" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="11" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="11" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="11" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="11" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="11" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="11" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="11" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9D169E5E-CD39-40A9-AEBF-6E9646644E4F}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+  <location ref="A18:D23" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="12">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="9">
+        <item x="3"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="7"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Total_Amount" fld="10" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="12">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
@@ -10280,15 +10730,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33D590A3-9471-4C92-9E52-E83C9F5F7E77}">
   <dimension ref="A2:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="91" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScale="91" workbookViewId="0">
       <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.54296875" customWidth="1"/>
-    <col min="2" max="2" width="18.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.453125" customWidth="1"/>
+    <col min="1" max="1" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.6328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.54296875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.36328125" bestFit="1" customWidth="1"/>
@@ -10523,8 +10974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3043BB43-6142-436C-A458-C763649D5D7F}">
   <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="75" workbookViewId="0">
-      <selection activeCell="R30" sqref="R30"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
